--- a/static/uploads/mau/bangcong/mau_bangchamcong_trangoai.xlsx
+++ b/static/uploads/mau/bangcong/mau_bangchamcong_trangoai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAT\Desktop\code\working\HRM\static\uploads\mau\bangcong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F6E78D-20C3-4303-A374-693A066C8171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5121B27D-986D-475C-975A-A90B9C7E00D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -92,7 +92,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,24 +138,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -218,7 +200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -240,16 +222,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -648,20 +620,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS1058"/>
+  <dimension ref="A1:AS1057"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:U2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="4" width="9" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
     <col min="6" max="6" width="44" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="4" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
@@ -679,29 +652,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
       <c r="V1" s="6"/>
       <c r="AO1" s="5"/>
       <c r="AP1" s="5"/>
@@ -710,27 +683,27 @@
       <c r="AS1" s="6"/>
     </row>
     <row r="2" spans="1:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
       <c r="V2" s="8"/>
       <c r="AO2" s="7"/>
       <c r="AP2" s="7"/>
@@ -738,123 +711,80 @@
       <c r="AR2" s="8"/>
       <c r="AS2" s="8"/>
     </row>
-    <row r="3" spans="1:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="10"/>
-    </row>
-    <row r="4" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="3" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="4" spans="1:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:45" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
@@ -5062,13 +4992,8 @@
       <c r="G1057" s="1"/>
       <c r="H1057" s="1"/>
     </row>
-    <row r="1058" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G1058" s="1"/>
-      <c r="H1058" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:AN3"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A2:U2"/>
   </mergeCells>

--- a/static/uploads/mau/bangcong/mau_bangchamcong_trangoai.xlsx
+++ b/static/uploads/mau/bangcong/mau_bangchamcong_trangoai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAT\Desktop\code\working\HRM\static\uploads\mau\bangcong\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5121B27D-986D-475C-975A-A90B9C7E00D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDAD418-8B94-40C4-B9E1-AA2D2CDF1487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -623,7 +623,7 @@
   <dimension ref="A1:AS1057"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
